--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_10_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_10_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>503951.4087961863</v>
+        <v>501388.3884602814</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>237.6932845413339</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>36.22747896427171</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,19 +710,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>28.32012362050714</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -829,10 +829,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>244.5013774058159</v>
+        <v>135.4862218515578</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>377.5946558015132</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,16 +902,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>335.4448137969985</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>82.71230803572838</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>248.6667347365864</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>159.3658021333072</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>373.1475190571512</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>83.72843440256555</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>58.34805518811571</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>20.92847288552894</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0.01276235473584165</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671011865</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>82.88550891432654</v>
+        <v>131.7584887394952</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2014,7 +2014,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>23.10998325717172</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>176.5196562849271</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>41.74133133758761</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2251,7 +2251,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>144.9604756260736</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2488,10 +2488,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>126.6321535627879</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,16 +2524,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>176.1811323375794</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>37.41782514684062</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>174.7517449752703</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>99.79417418837967</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2962,13 +2962,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>26.13627195705828</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,19 +2995,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3202,7 +3202,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>155.2435806730859</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3247,10 +3247,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>110.1444095748051</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3430,7 +3430,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3439,10 +3439,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>41.02686156550261</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>40.57972681915321</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3566,7 +3566,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,10 +3709,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>26.1362719570585</v>
       </c>
       <c r="T40" t="n">
-        <v>26.13627195705896</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>36.39209596079195</v>
       </c>
       <c r="G43" t="n">
-        <v>97.02629574295541</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4144,13 +4144,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>111.3341376326234</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>146.5235739004484</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>822.0139159595927</v>
+        <v>1101.768613746538</v>
       </c>
       <c r="C2" t="n">
-        <v>453.051399019181</v>
+        <v>861.6743869371094</v>
       </c>
       <c r="D2" t="n">
-        <v>94.78570041243053</v>
+        <v>503.4086883303589</v>
       </c>
       <c r="E2" t="n">
-        <v>94.78570041243053</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="F2" t="n">
-        <v>87.84019966322705</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872914</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4346,34 +4346,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U2" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V2" t="n">
-        <v>2324.98750153072</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W2" t="n">
-        <v>1972.218846260606</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X2" t="n">
-        <v>1598.753087999526</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="Y2" t="n">
-        <v>1208.613756023715</v>
+        <v>1488.368453810659</v>
       </c>
     </row>
     <row r="3">
@@ -4389,49 +4389,49 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J3" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>575.6256845144203</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L3" t="n">
-        <v>870.329241545892</v>
+        <v>717.852508549538</v>
       </c>
       <c r="M3" t="n">
-        <v>1233.591260505112</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.770244284151</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4440,7 +4440,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>663.7249087127072</v>
+        <v>682.9724752679349</v>
       </c>
       <c r="C4" t="n">
-        <v>494.7887257848004</v>
+        <v>514.036292340028</v>
       </c>
       <c r="D4" t="n">
-        <v>494.7887257848004</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E4" t="n">
-        <v>346.8756322024072</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F4" t="n">
-        <v>199.9856847044969</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4507,31 +4507,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U4" t="n">
-        <v>1389.475031785794</v>
+        <v>1200.379196202913</v>
       </c>
       <c r="V4" t="n">
-        <v>1134.790543579908</v>
+        <v>1200.379196202913</v>
       </c>
       <c r="W4" t="n">
-        <v>845.373373542947</v>
+        <v>910.9620261659522</v>
       </c>
       <c r="X4" t="n">
-        <v>845.373373542947</v>
+        <v>682.9724752679349</v>
       </c>
       <c r="Y4" t="n">
-        <v>845.373373542947</v>
+        <v>682.9724752679349</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1163.744434193592</v>
+        <v>805.7846820932077</v>
       </c>
       <c r="C5" t="n">
-        <v>1163.744434193592</v>
+        <v>805.7846820932077</v>
       </c>
       <c r="D5" t="n">
-        <v>1163.744434193592</v>
+        <v>805.7846820932077</v>
       </c>
       <c r="E5" t="n">
-        <v>777.9561815953475</v>
+        <v>805.7846820932077</v>
       </c>
       <c r="F5" t="n">
-        <v>366.9702768057399</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
         <v>51.24678656800311</v>
@@ -4565,13 +4565,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4583,7 +4583,7 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
         <v>2542.25058172385</v>
@@ -4604,13 +4604,13 @@
         <v>2308.758267664335</v>
       </c>
       <c r="W5" t="n">
-        <v>2308.758267664335</v>
+        <v>1955.989612394221</v>
       </c>
       <c r="X5" t="n">
-        <v>1935.292509403255</v>
+        <v>1582.523854133141</v>
       </c>
       <c r="Y5" t="n">
-        <v>1545.153177427444</v>
+        <v>1192.384522157329</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4620,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D6" t="n">
         <v>607.9167021542605</v>
@@ -4635,10 +4635,10 @@
         <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
@@ -4647,25 +4647,25 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>507.2413987429755</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L6" t="n">
-        <v>801.9449557744472</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M6" t="n">
-        <v>1165.206974733667</v>
+        <v>1352.031492328576</v>
       </c>
       <c r="N6" t="n">
-        <v>1552.492103330613</v>
+        <v>1739.316620925521</v>
       </c>
       <c r="O6" t="n">
-        <v>1884.562538506774</v>
+        <v>2071.387056101683</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2318.56978993398</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4683,7 +4683,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X6" t="n">
         <v>1307.279776881661</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>368.0960630783031</v>
+        <v>518.0887888085541</v>
       </c>
       <c r="C7" t="n">
-        <v>199.1598801503962</v>
+        <v>518.0887888085541</v>
       </c>
       <c r="D7" t="n">
-        <v>199.1598801503962</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="E7" t="n">
-        <v>51.24678656800311</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800311</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
         <v>51.24678656800311</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1552.898334179822</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1356.269586339683</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T7" t="n">
-        <v>1356.269586339683</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="U7" t="n">
-        <v>1067.151248843521</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="V7" t="n">
-        <v>1067.151248843521</v>
+        <v>990.0598878880302</v>
       </c>
       <c r="W7" t="n">
-        <v>777.7340788065602</v>
+        <v>738.8813679520842</v>
       </c>
       <c r="X7" t="n">
-        <v>549.7445279085429</v>
+        <v>738.8813679520842</v>
       </c>
       <c r="Y7" t="n">
-        <v>549.7445279085429</v>
+        <v>518.0887888085541</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1466.396332783113</v>
+        <v>1342.972143346163</v>
       </c>
       <c r="C8" t="n">
-        <v>1097.433815842701</v>
+        <v>1342.972143346163</v>
       </c>
       <c r="D8" t="n">
-        <v>739.1681172359506</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="E8" t="n">
-        <v>739.1681172359506</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="F8" t="n">
-        <v>732.2226164867471</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G8" t="n">
         <v>355.3059305704328</v>
@@ -4802,13 +4802,13 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U8" t="n">
-        <v>2184.059060190805</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="V8" t="n">
-        <v>1852.996172847234</v>
+        <v>2106.577233583054</v>
       </c>
       <c r="W8" t="n">
-        <v>1852.996172847234</v>
+        <v>2106.577233583054</v>
       </c>
       <c r="X8" t="n">
-        <v>1852.996172847234</v>
+        <v>1733.111475321974</v>
       </c>
       <c r="Y8" t="n">
-        <v>1852.996172847234</v>
+        <v>1342.972143346163</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
         <v>51.2467865680031</v>
@@ -4884,25 +4884,25 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>423.1489515180662</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L9" t="n">
-        <v>717.8525085495379</v>
+        <v>846.3061319081667</v>
       </c>
       <c r="M9" t="n">
-        <v>1352.031492328576</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N9" t="n">
-        <v>1739.316620925522</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O9" t="n">
-        <v>2175.502629736639</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>727.3376551589395</v>
+        <v>624.0678491612455</v>
       </c>
       <c r="C10" t="n">
-        <v>558.4014722310326</v>
+        <v>455.1316662333386</v>
       </c>
       <c r="D10" t="n">
-        <v>473.8272960668249</v>
+        <v>305.0150268210029</v>
       </c>
       <c r="E10" t="n">
-        <v>473.8272960668249</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668249</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386097</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1244.744376093917</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V10" t="n">
-        <v>1244.744376093917</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W10" t="n">
-        <v>955.3272060569568</v>
+        <v>1033.705864889503</v>
       </c>
       <c r="X10" t="n">
-        <v>727.3376551589395</v>
+        <v>805.7163139914852</v>
       </c>
       <c r="Y10" t="n">
-        <v>727.3376551589395</v>
+        <v>805.7163139914852</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,22 +5027,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,10 +5051,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694708</v>
@@ -5066,13 +5066,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5124,16 +5124,16 @@
         <v>93.81666304797189</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452613</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718132</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>762.5348780504994</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C13" t="n">
-        <v>762.5348780504994</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>114.9565346495163</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>114.9565346495163</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>114.9565346495163</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5221,28 +5221,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.950192312851</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.095357967755</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.493892990697</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.418666334894</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.734178129007</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.317008092047</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3274571940295</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5348780504994</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="14">
@@ -5270,16 +5270,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5297,10 +5297,10 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703784</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1318.793114229131</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>1870.702844468418</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2294.325993963486</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2527.587654338369</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>866.4638174991042</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C16" t="n">
-        <v>697.5276345711973</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711973</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5458,28 +5458,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832666</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487571</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510512</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.38585385471</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1604.663117577612</v>
+        <v>1622.342175037157</v>
       </c>
       <c r="W16" t="n">
-        <v>1315.245947540652</v>
+        <v>1332.925005000197</v>
       </c>
       <c r="X16" t="n">
-        <v>1087.256396642634</v>
+        <v>1104.935454102179</v>
       </c>
       <c r="Y16" t="n">
-        <v>866.4638174991042</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="17">
@@ -5495,28 +5495,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5531,7 +5531,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>221.3431781811715</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>716.6687843969303</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>264.0500279773688</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>117.1600804794585</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603202</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.2863919474</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741513</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1505.299220625425</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.309669727408</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5741,22 +5741,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
         <v>2206.55866301478</v>
@@ -5765,34 +5765,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>409.1360811687895</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.167399417937</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N21" t="n">
-        <v>1963.765362972544</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O21" t="n">
-        <v>2515.675093211831</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
         <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2264.108249235165</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1975.033022579363</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1720.348534373476</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1430.931364336515</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1202.941813438498</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583878</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="23">
@@ -5975,34 +5975,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>835.5837926935562</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>666.6476097656493</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>516.5309703533136</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>368.6178767709205</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>221.7279292730101</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>221.7279292730101</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2269.002343845332</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2049.400878868273</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>2049.400878868273</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1794.716390662386</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W25" t="n">
-        <v>1505.299220625425</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.309669727408</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>1017.232257523796</v>
       </c>
     </row>
     <row r="26">
@@ -6206,40 +6206,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>806.8386896933887</v>
+        <v>762.547769317909</v>
       </c>
       <c r="C28" t="n">
-        <v>637.9025067654818</v>
+        <v>593.6115863900021</v>
       </c>
       <c r="D28" t="n">
-        <v>637.9025067654818</v>
+        <v>593.6115863900021</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>445.698492807609</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>298.8085453096986</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>131.6124460245786</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2270.446169463826</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1981.370942808024</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.686454602137</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1437.269284565176</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.279733667159</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y28" t="n">
-        <v>988.4871545236284</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>983.3556038098237</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C31" t="n">
-        <v>814.4194208819168</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D31" t="n">
-        <v>664.3027814695811</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E31" t="n">
-        <v>516.389687887188</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F31" t="n">
-        <v>369.4997403892776</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>202.3036411041575</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1903.203368718571</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W31" t="n">
-        <v>1613.786198681611</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X31" t="n">
-        <v>1385.796647783593</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y31" t="n">
-        <v>1165.004068640063</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="32">
@@ -6689,19 +6689,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6774,25 +6774,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452614</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536381</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2290.151385930679</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>2070.54992095362</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199802</v>
+        <v>1781.474694297818</v>
       </c>
       <c r="V34" t="n">
-        <v>1616.556199993915</v>
+        <v>1526.790206091931</v>
       </c>
       <c r="W34" t="n">
-        <v>1505.299220625425</v>
+        <v>1237.37303605497</v>
       </c>
       <c r="X34" t="n">
-        <v>1277.309669727408</v>
+        <v>1237.37303605497</v>
       </c>
       <c r="Y34" t="n">
-        <v>1056.517090583878</v>
+        <v>1016.58045691144</v>
       </c>
     </row>
     <row r="35">
@@ -6932,31 +6932,31 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M36" t="n">
-        <v>1103.652278938886</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1731.250242493492</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>916.3099000622266</v>
+        <v>950.7540666811332</v>
       </c>
       <c r="C37" t="n">
-        <v>747.3737171343197</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D37" t="n">
-        <v>597.2570777219839</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E37" t="n">
-        <v>449.3439841395908</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F37" t="n">
-        <v>302.4540366416804</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>135.2579373565604</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2405.973460530611</v>
       </c>
       <c r="T37" t="n">
-        <v>2379.917379832663</v>
+        <v>2186.371995553553</v>
       </c>
       <c r="U37" t="n">
-        <v>2090.842153176861</v>
+        <v>1897.296768897751</v>
       </c>
       <c r="V37" t="n">
-        <v>1836.157664970974</v>
+        <v>1642.612280691864</v>
       </c>
       <c r="W37" t="n">
-        <v>1546.740494934014</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="X37" t="n">
-        <v>1318.750944035996</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y37" t="n">
-        <v>1097.958364892466</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="38">
@@ -7163,19 +7163,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,37 +7184,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>119.2902967703784</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>119.2902967703784</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>119.2902967703784</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969303</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951537</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7327,37 +7327,37 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580261</v>
+        <v>2420.562808876161</v>
       </c>
       <c r="T40" t="n">
         <v>2420.562808876161</v>
@@ -7397,34 +7397,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>800.5007694647281</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C43" t="n">
-        <v>631.5645865368213</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D43" t="n">
-        <v>481.4479471244855</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="E43" t="n">
-        <v>333.5348535420924</v>
+        <v>379.8591585748671</v>
       </c>
       <c r="F43" t="n">
-        <v>333.5348535420924</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>2264.108249235165</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>1975.033022579363</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V43" t="n">
-        <v>1720.348534373476</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W43" t="n">
-        <v>1430.931364336515</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X43" t="n">
-        <v>1202.941813438498</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y43" t="n">
-        <v>982.1492342949679</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="44">
@@ -7637,31 +7637,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1074.481071167373</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1702.079034721979</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536381</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487567</v>
+        <v>2151.649524353727</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831765</v>
+        <v>1862.574297697925</v>
       </c>
       <c r="V46" t="n">
-        <v>1653.302830625878</v>
+        <v>1607.889809492038</v>
       </c>
       <c r="W46" t="n">
-        <v>1505.299220625425</v>
+        <v>1318.472639455077</v>
       </c>
       <c r="X46" t="n">
-        <v>1277.309669727408</v>
+        <v>1090.48308855706</v>
       </c>
       <c r="Y46" t="n">
-        <v>1056.517090583878</v>
+        <v>869.6905094135296</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>154.0169020165195</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8067,7 +8067,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>249.387732507165</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8076,10 +8076,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,13 +8295,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>84.94186588374703</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8310,13 +8310,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>105.1672460959157</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8535,7 +8535,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>129.7511347056858</v>
       </c>
       <c r="M9" t="n">
         <v>273.6534998179982</v>
@@ -8544,7 +8544,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>105.1672460959146</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>-3.824271744423714e-13</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9881,10 +9881,10 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>-4.54053515664161e-13</v>
       </c>
       <c r="N26" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -22547,7 +22547,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>127.5796072296737</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22556,16 +22556,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>375.3202238086823</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,13 +22595,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>90.80533686160624</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22708,7 +22708,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22717,13 +22717,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22768,7 +22768,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-8.629657607716254e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.33736343303658</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.36248435538582</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23650,22 +23650,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>169.2521344095015</v>
+        <v>120.3791545843328</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>142.4141550350971</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012336</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>110.0033420516639</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>125.5054897610383</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.62417772602114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>13.662559283436</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>4.845153664065236</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182141</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>102.8768876993832</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>42.65370535201794</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>80.03780599355763</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,19 +24883,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>25.78270532855873</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,10 +25135,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>176.3785887617859</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25318,7 +25318,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>99.26785128072125</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>140.4465591824914</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>154.8900140445861</v>
       </c>
       <c r="T40" t="n">
-        <v>191.2691783702293</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>109.0289520621393</v>
       </c>
       <c r="G43" t="n">
-        <v>68.49784254931343</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26032,13 +26032,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>106.0713126946649</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>139.9994244361426</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>963808.9955732528</v>
+        <v>963808.995573253</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1035211.354254882</v>
+        <v>1035211.354254881</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1035211.354254882</v>
+        <v>1035211.354254881</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1035211.354254882</v>
+        <v>1035211.354254881</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1035211.354254882</v>
+        <v>1035211.354254881</v>
       </c>
     </row>
     <row r="14">
@@ -26317,7 +26317,7 @@
         <v>389994.8406855348</v>
       </c>
       <c r="D2" t="n">
-        <v>389994.8406855347</v>
+        <v>389994.8406855348</v>
       </c>
       <c r="E2" t="n">
         <v>383394.6348527531</v>
@@ -26329,19 +26329,19 @@
         <v>383394.634852753</v>
       </c>
       <c r="H2" t="n">
-        <v>383394.6348527531</v>
+        <v>383394.634852753</v>
       </c>
       <c r="I2" t="n">
         <v>383394.6348527529</v>
       </c>
       <c r="J2" t="n">
-        <v>383394.6348527527</v>
+        <v>383394.6348527529</v>
       </c>
       <c r="K2" t="n">
-        <v>383394.6348527528</v>
+        <v>383394.634852753</v>
       </c>
       <c r="L2" t="n">
-        <v>383394.6348527531</v>
+        <v>383394.634852753</v>
       </c>
       <c r="M2" t="n">
         <v>383394.6348527531</v>
@@ -26350,10 +26350,10 @@
         <v>383394.634852753</v>
       </c>
       <c r="O2" t="n">
-        <v>383394.6348527531</v>
+        <v>383394.6348527529</v>
       </c>
       <c r="P2" t="n">
-        <v>383394.6348527529</v>
+        <v>383394.634852753</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245462</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89354.8431189596</v>
+        <v>89354.84311895963</v>
       </c>
       <c r="C4" t="n">
         <v>131909.726831625</v>
@@ -26427,37 +26427,37 @@
         <v>6897.424496707361</v>
       </c>
       <c r="F4" t="n">
+        <v>6897.42449670736</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6897.42449670736</v>
+      </c>
+      <c r="H4" t="n">
         <v>6897.424496707361</v>
       </c>
-      <c r="G4" t="n">
-        <v>6897.424496707361</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
+        <v>6897.424496707328</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6897.424496707328</v>
+      </c>
+      <c r="K4" t="n">
         <v>6897.42449670736</v>
       </c>
-      <c r="I4" t="n">
-        <v>6897.424496707359</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6897.424496707366</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6897.424496707351</v>
-      </c>
       <c r="L4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="M4" t="n">
         <v>6897.424496707361</v>
       </c>
       <c r="N4" t="n">
-        <v>6897.424496707343</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707368</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-942464.3022716041</v>
+        <v>-942650.6956601433</v>
       </c>
       <c r="C6" t="n">
+        <v>165147.3414140654</v>
+      </c>
+      <c r="D6" t="n">
         <v>165147.3414140651</v>
       </c>
-      <c r="D6" t="n">
-        <v>165147.3414140649</v>
-      </c>
       <c r="E6" t="n">
-        <v>-232110.7610924074</v>
+        <v>-232145.4990178433</v>
       </c>
       <c r="F6" t="n">
-        <v>275374.6805321385</v>
+        <v>275339.9426067028</v>
       </c>
       <c r="G6" t="n">
-        <v>275374.6805321385</v>
+        <v>275339.942606703</v>
       </c>
       <c r="H6" t="n">
-        <v>275374.6805321388</v>
+        <v>275339.9426067027</v>
       </c>
       <c r="I6" t="n">
-        <v>275374.6805321384</v>
+        <v>275339.9426067027</v>
       </c>
       <c r="J6" t="n">
-        <v>107769.5027221557</v>
+        <v>107734.7647967202</v>
       </c>
       <c r="K6" t="n">
-        <v>275374.6805321383</v>
+        <v>275339.9426067028</v>
       </c>
       <c r="L6" t="n">
-        <v>275374.6805321386</v>
+        <v>275339.942606703</v>
       </c>
       <c r="M6" t="n">
-        <v>142767.3868032118</v>
+        <v>142732.648877776</v>
       </c>
       <c r="N6" t="n">
-        <v>275374.6805321386</v>
+        <v>275339.942606703</v>
       </c>
       <c r="O6" t="n">
-        <v>275374.6805321387</v>
+        <v>275339.9426067027</v>
       </c>
       <c r="P6" t="n">
-        <v>275374.6805321386</v>
+        <v>275339.9426067029</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000389</v>
@@ -26799,13 +26799,13 @@
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26823,7 +26823,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26957,25 +26957,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>433.9106082241349</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="E3" t="n">
-        <v>433.9106082241346</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27385,16 +27385,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>160.2399132668558</v>
       </c>
       <c r="V2" t="n">
-        <v>299.4321348496277</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27552,10 +27552,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>41.72577671538471</v>
+        <v>150.7409322696428</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.139185861967405</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,16 +27622,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>71.43123194471298</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -27676,7 +27676,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>18.84526438384525</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
@@ -27831,16 +27831,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>37.85626360000455</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>195.3172394873758</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>38.40018371580283</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,7 +27907,7 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>64.8870386156468</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -28068,10 +28068,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>228.1749431484753</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-2.211213280550236e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28530,7 +28530,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>3.016490760880212e-12</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28959,7 +28959,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1.885306725550132e-12</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -31039,34 +31039,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31075,13 +31075,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,34 +31118,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31154,10 +31154,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31203,19 +31203,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31844,7 +31844,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862122</v>
@@ -31856,7 +31856,7 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32072,7 +32072,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32081,7 +32081,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>162.5000833330452</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862122</v>
@@ -32099,7 +32099,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>171.4104471179097</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>264.8708611242907</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>456.3459017226597</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>140.7358547888808</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>277.4567226539314</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>281.0363767960755</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33494,16 +33494,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>246.9596973201446</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,10 +33512,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33731,10 +33731,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422586</v>
@@ -33743,22 +33743,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>171.5999003578894</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>152.5685698206127</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>320.9147064709962</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34454,22 +34454,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>301.6445156724565</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34699,28 +34699,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>340.6043982600042</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000389</v>
+        <v>584.5244463807089</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35015,13 +35015,13 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>271.5293621272318</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35030,13 +35030,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>221.6479684267703</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>427.431495343536</v>
       </c>
       <c r="M9" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>440.5919280920377</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35492,7 +35492,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>261.348781916454</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35504,7 +35504,7 @@
         <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35729,7 +35729,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>23.94570355317105</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35747,7 +35747,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>25.73094315394571</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>127.0294221499317</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>318.5044627483007</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,22 +36440,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>138.9023428740572</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,22 +36677,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>138.9023428740572</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902943</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37142,16 +37142,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>108.4053175402704</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,10 +37160,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37391,22 +37391,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>29.46586643587111</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>25.73094315394598</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>189.5729943876629</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38102,22 +38102,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>159.048271228012</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
